--- a/data/trans_camb/P44_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P44_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-31,34</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-40,06</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,4</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-18,05</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,46</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,26</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-26,83</t>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-6,06</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-7,43</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 25,95</t>
+          <t>-6,11; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -2,21</t>
+          <t>-11,65; -3,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-56,7; -24,89</t>
+          <t>-11,88; -4,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 15,51</t>
+          <t>-10,12; -0,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,49; 9,38</t>
+          <t>-10,3; 2,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 8,77</t>
+          <t>-11,4; 0,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 15,74</t>
+          <t>-12,23; -1,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 0,93</t>
+          <t>-15,25; -5,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-43,16; -5,37</t>
+          <t>-6,5; 2,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,66; -2,45</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; -3,78</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-10,62; -3,98</t>
         </is>
       </c>
     </row>
@@ -738,12 +792,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>-11,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-78,23%</t>
+          <t>-93,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -753,32 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,46%</t>
+          <t>-70,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-34,53%</t>
+          <t>-38,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-41,06%</t>
+          <t>-53,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>-65,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-44,31%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-58,67%</t>
+          <t>-26,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-70,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-80,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-86,86%</t>
         </is>
       </c>
     </row>
@@ -791,12 +860,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 89,23</t>
+          <t>-62,21; 108,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 36,56</t>
+          <t>-100,0; -57,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +875,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,9; 38,82</t>
+          <t>-100,0; 30,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 26,28</t>
+          <t>-76,31; 51,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,84; 24,4</t>
+          <t>-82,56; 16,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,49; 43,45</t>
+          <t>-87,82; -13,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,24; 2,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,02; -14,51</t>
+          <t>-61,38; 37,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-88,86; -38,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-92,47; -52,73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -42,58</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,16</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,63</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-9,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 20,12</t>
+          <t>-12,19; 3,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 28,96</t>
+          <t>-12,31; 3,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 34,83</t>
+          <t>-12,65; 2,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 21,87</t>
+          <t>-20,68; -5,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 23,87</t>
+          <t>-2,79; 8,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 18,47</t>
+          <t>-5,93; 4,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 14,71</t>
+          <t>-6,78; 4,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 19,39</t>
+          <t>-13,38; -4,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 17,72</t>
+          <t>-5,23; 4,31</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 2,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,84; 1,43</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-14,85; -6,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,84%</t>
+          <t>-25,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>-27,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>-36,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-16,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>-93,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-18,55%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-27,41%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-97,08%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,32; 77,55</t>
+          <t>-73,83; 56,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,99; 122,58</t>
+          <t>-75,46; 52,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 130,68</t>
+          <t>-78,35; 50,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 93,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 101,78</t>
+          <t>-25,49; 130,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 72,23</t>
+          <t>-49,42; 70,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 52,63</t>
+          <t>-57,18; 63,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 65,17</t>
+          <t>-100,0; -59,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 59,95</t>
+          <t>-40,98; 60,82</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-55,47; 32,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-59,23; 23,34</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -81,19</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-22,13</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-30,63</t>
+          <t>-7,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-35,6</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,66</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-12,95</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-17,53</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-20,76</t>
+          <t>-3,03</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,84</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-6,29</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-7,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-48,7; 6,67</t>
+          <t>-9,8; 2,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-52,73; -4,71</t>
+          <t>-13,97; -2,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-57,94; -11,61</t>
+          <t>-14,16; -3,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 6,62</t>
+          <t>-15,07; -5,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 7,51</t>
+          <t>-6,46; 1,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 4,57</t>
+          <t>-8,09; -1,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 2,42</t>
+          <t>-8,84; -1,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,22; -4,05</t>
+          <t>-10,08; -3,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-34,58; -7,47</t>
+          <t>-6,73; 1,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; -2,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; -3,37</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; -4,99</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,39%</t>
+          <t>-34,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-53,14%</t>
+          <t>-72,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-61,75%</t>
+          <t>-76,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,31%</t>
+          <t>-90,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,2%</t>
+          <t>-30,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-32,87%</t>
+          <t>-52,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-30,25%</t>
+          <t>-58,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-40,96%</t>
+          <t>-78,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-48,49%</t>
+          <t>-32,81%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-63,17%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-68,03%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-84,74%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,24; 13,88</t>
+          <t>-72,21; 47,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,38; -6,14</t>
+          <t>-90,83; -36,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,26; -20,17</t>
+          <t>-92,05; -38,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 25,84</t>
+          <t>-100,0; -66,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,74; 31,45</t>
+          <t>-61,71; 27,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,81; 20,89</t>
+          <t>-75,79; -11,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 7,66</t>
+          <t>-78,75; -22,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,82; -10,56</t>
+          <t>-93,04; -41,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,55; -18,5</t>
+          <t>-60,25; 18,96</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-78,52; -33,56</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-82,35; -45,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-93,86; -65,06</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,83</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,62</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-11,55</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,53</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,79</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,24</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,77</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-3,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 20,71</t>
+          <t>-4,55; 2,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 11,63</t>
+          <t>-6,18; -0,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 22,41</t>
+          <t>-5,35; 2,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 1,01</t>
+          <t>-5,81; 1,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 3,12</t>
+          <t>-8,34; -0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 6,07</t>
+          <t>-8,5; -0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 0,44</t>
+          <t>-9,29; -1,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 0,33</t>
+          <t>-9,09; -1,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 5,3</t>
+          <t>-5,51; -0,48</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; -1,11</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; -1,06</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; -1,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,67%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-32,75%</t>
+          <t>-57,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>-43,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,19%</t>
+          <t>-45,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-37,47%</t>
+          <t>-52,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-30,91%</t>
+          <t>-53,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-31,01%</t>
+          <t>-55,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-35,57%</t>
+          <t>-58,54%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-24,81%</t>
+          <t>-41,92%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-55,23%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-51,25%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-54,3%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,19; 87,23</t>
+          <t>-69,45; 75,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,0; 44,81</t>
+          <t>-83,58; 9,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,41; 84,25</t>
+          <t>-81,5; 91,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,97; 4,49</t>
+          <t>-84,6; 42,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,13; 13,37</t>
+          <t>-75,93; -3,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 25,01</t>
+          <t>-78,15; 0,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 3,9</t>
+          <t>-78,72; -15,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,37; 2,03</t>
+          <t>-81,01; -18,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,54; 21,76</t>
+          <t>-67,13; -7,07</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-74,57; -18,83</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-71,78; -14,75</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-75,52; -13,99</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-11,51</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-13,5</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-16,17</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-12,45</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-3,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 10,51</t>
+          <t>-4,91; 1,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 2,52</t>
+          <t>-6,07; -0,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 14,39</t>
+          <t>-5,43; 0,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 17,8</t>
+          <t>-6,83; -0,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 2,01</t>
+          <t>-3,79; 3,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,48; -2,0</t>
+          <t>-6,54; -0,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 8,49</t>
+          <t>-6,74; -1,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-23,62; -0,95</t>
+          <t>-6,48; -0,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 0,85</t>
+          <t>-3,57; 1,76</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; -1,11</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; -0,79</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; -1,33</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-28,13%</t>
+          <t>-32,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-56,01%</t>
+          <t>-66,88%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-46,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-81,21%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-55,66%</t>
+          <t>-3,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-66,63%</t>
+          <t>-68,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>-74,33%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-55,82%</t>
+          <t>-66,12%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-45,83%</t>
+          <t>-17,36%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-67,77%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-61,4%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-73,17%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-72,47; 89,36</t>
+          <t>-75,2; 90,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-89,22; 38,25</t>
+          <t>-92,84; 7,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,46; 118,21</t>
+          <t>-82,79; 41,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,39; 112,71</t>
+          <t>-100,0; 15,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,81; 35,56</t>
+          <t>-60,57; 150,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1,49</t>
+          <t>-92,43; 6,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 57,62</t>
+          <t>-93,8; 3,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-82,5; -1,87</t>
+          <t>-93,57; 23,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-77,59; 6,93</t>
+          <t>-59,36; 56,23</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-86,78; -30,83</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-83,8; -18,95</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-92,9; -26,11</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-75,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-75,36</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-75,36</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-38,25</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-13,24</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,52</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,12</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,5</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 0,0</t>
-        </is>
-      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-5,55; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-5,17; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 70,32</t>
+          <t>-5,23; 0,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 88,42</t>
+          <t>-5,38; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 92,16</t>
+          <t>-2,49; 0,5</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 1,9</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 2,71</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 0,0</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-50,76%</t>
-        </is>
-      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-59,28%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>37,58%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1914,6 +2283,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-10,32</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-10,65</t>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 5,89</t>
+          <t>-3,62; 0,64</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 1,07</t>
+          <t>-5,7; -1,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 4,18</t>
+          <t>-5,59; -1,69</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 0,9</t>
+          <t>-7,33; -3,73</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -0,84</t>
+          <t>-3,5; 0,1</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,52; -2,23</t>
+          <t>-4,82; -1,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 0,41</t>
+          <t>-5,04; -2,14</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-17,32; -3,72</t>
+          <t>-6,81; -3,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -2,63</t>
+          <t>-2,85; -0,1</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; -2,24</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; -2,46</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; -4,27</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-18,27%</t>
+          <t>-24,47%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-32,65%</t>
+          <t>-58,44%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-26,15%</t>
+          <t>-57,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-19,73%</t>
+          <t>-81,88%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-24,8%</t>
+          <t>-23,64%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-31,44%</t>
+          <t>-46,47%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>-53,18%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-28,54%</t>
+          <t>-80,39%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-29,44%</t>
+          <t>-24,03%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-52,14%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-54,99%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-81,1%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 17,39</t>
+          <t>-49,1; 13,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-53,77; 3,47</t>
+          <t>-73,63; -34,21</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 12,67</t>
+          <t>-72,99; -28,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 2,85</t>
+          <t>-91,1; -66,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-44,62; -2,07</t>
+          <t>-46,0; 2,22</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-47,52; -6,46</t>
+          <t>-61,82; -23,81</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 1,34</t>
+          <t>-66,04; -36,18</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-43,76; -10,31</t>
+          <t>-87,79; -67,71</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-43,95; -7,46</t>
+          <t>-38,93; -1,66</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-63,96; -36,81</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-65,68; -40,82</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-87,53; -72,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
